--- a/natmiOut/OldD2/LR-pairs_lrc2p/Jag1-Cd46.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Jag1-Cd46.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.23761554217</v>
+        <v>15.2630565</v>
       </c>
       <c r="H2">
-        <v>15.23761554217</v>
+        <v>30.526113</v>
       </c>
       <c r="I2">
-        <v>0.2478663190620499</v>
+        <v>0.233863797955522</v>
       </c>
       <c r="J2">
-        <v>0.2478663190620499</v>
+        <v>0.1906936114921842</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.54097546517566</v>
+        <v>3.541999</v>
       </c>
       <c r="N2">
-        <v>3.54097546517566</v>
+        <v>7.083997999999999</v>
       </c>
       <c r="O2">
-        <v>0.362180266881437</v>
+        <v>0.3246962407904732</v>
       </c>
       <c r="P2">
-        <v>0.362180266881437</v>
+        <v>0.266923476966389</v>
       </c>
       <c r="Q2">
-        <v>53.95602278260328</v>
+        <v>54.0617308599435</v>
       </c>
       <c r="R2">
-        <v>53.95602278260328</v>
+        <v>216.246923439774</v>
       </c>
       <c r="S2">
-        <v>0.08977228958881264</v>
+        <v>0.07593469605314074</v>
       </c>
       <c r="T2">
-        <v>0.08977228958881264</v>
+        <v>0.05090060181477156</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.23761554217</v>
+        <v>15.2630565</v>
       </c>
       <c r="H3">
-        <v>15.23761554217</v>
+        <v>30.526113</v>
       </c>
       <c r="I3">
-        <v>0.2478663190620499</v>
+        <v>0.233863797955522</v>
       </c>
       <c r="J3">
-        <v>0.2478663190620499</v>
+        <v>0.1906936114921842</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.583938746742756</v>
+        <v>0.365435</v>
       </c>
       <c r="N3">
-        <v>0.583938746742756</v>
+        <v>1.096305</v>
       </c>
       <c r="O3">
-        <v>0.05972678806098748</v>
+        <v>0.03349954947849127</v>
       </c>
       <c r="P3">
-        <v>0.05972678806098748</v>
+        <v>0.04130852979004752</v>
       </c>
       <c r="Q3">
-        <v>8.89783412304269</v>
+        <v>5.577655052077501</v>
       </c>
       <c r="R3">
-        <v>8.89783412304269</v>
+        <v>33.46593031246501</v>
       </c>
       <c r="S3">
-        <v>0.01480425910607615</v>
+        <v>0.007834331870838894</v>
       </c>
       <c r="T3">
-        <v>0.01480425910607615</v>
+        <v>0.007877272731096641</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.23761554217</v>
+        <v>15.2630565</v>
       </c>
       <c r="H4">
-        <v>15.23761554217</v>
+        <v>30.526113</v>
       </c>
       <c r="I4">
-        <v>0.2478663190620499</v>
+        <v>0.233863797955522</v>
       </c>
       <c r="J4">
-        <v>0.2478663190620499</v>
+        <v>0.1906936114921842</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.04870612724997</v>
+        <v>0.6248779999999999</v>
       </c>
       <c r="N4">
-        <v>3.04870612724997</v>
+        <v>1.874634</v>
       </c>
       <c r="O4">
-        <v>0.3118296666186277</v>
+        <v>0.05728277663338396</v>
       </c>
       <c r="P4">
-        <v>0.3118296666186277</v>
+        <v>0.07063579426750397</v>
       </c>
       <c r="Q4">
-        <v>46.45501186809305</v>
+        <v>9.537548219607</v>
       </c>
       <c r="R4">
-        <v>46.45501186809305</v>
+        <v>57.225289317642</v>
       </c>
       <c r="S4">
-        <v>0.07729207163910541</v>
+        <v>0.013396367700921</v>
       </c>
       <c r="T4">
-        <v>0.07729207163910541</v>
+        <v>0.01346979470948925</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.23761554217</v>
+        <v>15.2630565</v>
       </c>
       <c r="H5">
-        <v>15.23761554217</v>
+        <v>30.526113</v>
       </c>
       <c r="I5">
-        <v>0.2478663190620499</v>
+        <v>0.233863797955522</v>
       </c>
       <c r="J5">
-        <v>0.2478663190620499</v>
+        <v>0.1906936114921842</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>2.60321122502843</v>
+        <v>0.3781956666666667</v>
       </c>
       <c r="N5">
-        <v>2.60321122502843</v>
+        <v>1.134587</v>
       </c>
       <c r="O5">
-        <v>0.2662632784389478</v>
+        <v>0.03466932408787059</v>
       </c>
       <c r="P5">
-        <v>0.2662632784389478</v>
+        <v>0.04275098707832277</v>
       </c>
       <c r="Q5">
-        <v>39.66673182204461</v>
+        <v>5.7724218283885</v>
       </c>
       <c r="R5">
-        <v>39.66673182204461</v>
+        <v>34.63453097033101</v>
       </c>
       <c r="S5">
-        <v>0.06599769872805565</v>
+        <v>0.008107899803740279</v>
       </c>
       <c r="T5">
-        <v>0.06599769872805565</v>
+        <v>0.008152340120821069</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.47650306839706</v>
+        <v>15.2630565</v>
       </c>
       <c r="H6">
-        <v>6.47650306839706</v>
+        <v>30.526113</v>
       </c>
       <c r="I6">
-        <v>0.105351586769923</v>
+        <v>0.233863797955522</v>
       </c>
       <c r="J6">
-        <v>0.105351586769923</v>
+        <v>0.1906936114921842</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.54097546517566</v>
+        <v>3.353617</v>
       </c>
       <c r="N6">
-        <v>3.54097546517566</v>
+        <v>10.060851</v>
       </c>
       <c r="O6">
-        <v>0.362180266881437</v>
+        <v>0.3074271994291993</v>
       </c>
       <c r="P6">
-        <v>0.362180266881437</v>
+        <v>0.3790906392351849</v>
       </c>
       <c r="Q6">
-        <v>22.93313846532887</v>
+        <v>51.18644575036051</v>
       </c>
       <c r="R6">
-        <v>22.93313846532887</v>
+        <v>307.1186745021631</v>
       </c>
       <c r="S6">
-        <v>0.03815626581271359</v>
+        <v>0.07189609245334222</v>
       </c>
       <c r="T6">
-        <v>0.03815626581271359</v>
+        <v>0.07229016307863813</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.47650306839706</v>
+        <v>15.2630565</v>
       </c>
       <c r="H7">
-        <v>6.47650306839706</v>
+        <v>30.526113</v>
       </c>
       <c r="I7">
-        <v>0.105351586769923</v>
+        <v>0.233863797955522</v>
       </c>
       <c r="J7">
-        <v>0.105351586769923</v>
+        <v>0.1906936114921842</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.583938746742756</v>
+        <v>2.6445295</v>
       </c>
       <c r="N7">
-        <v>0.583938746742756</v>
+        <v>5.289059</v>
       </c>
       <c r="O7">
-        <v>0.05972678806098748</v>
+        <v>0.2424249095805814</v>
       </c>
       <c r="P7">
-        <v>0.05972678806098748</v>
+        <v>0.1992905726625519</v>
       </c>
       <c r="Q7">
-        <v>3.781881085035393</v>
+        <v>40.36360317441675</v>
       </c>
       <c r="R7">
-        <v>3.781881085035393</v>
+        <v>161.454412697667</v>
       </c>
       <c r="S7">
-        <v>0.006292311894895927</v>
+        <v>0.05669441007353877</v>
       </c>
       <c r="T7">
-        <v>0.006292311894895927</v>
+        <v>0.03800343903736757</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.47650306839706</v>
+        <v>6.993139999999999</v>
       </c>
       <c r="H8">
-        <v>6.47650306839706</v>
+        <v>20.97942</v>
       </c>
       <c r="I8">
-        <v>0.105351586769923</v>
+        <v>0.1071503784340102</v>
       </c>
       <c r="J8">
-        <v>0.105351586769923</v>
+        <v>0.1310563636716983</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.04870612724997</v>
+        <v>3.541999</v>
       </c>
       <c r="N8">
-        <v>3.04870612724997</v>
+        <v>7.083997999999999</v>
       </c>
       <c r="O8">
-        <v>0.3118296666186277</v>
+        <v>0.3246962407904732</v>
       </c>
       <c r="P8">
-        <v>0.3118296666186277</v>
+        <v>0.266923476966389</v>
       </c>
       <c r="Q8">
-        <v>19.74495458777535</v>
+        <v>24.76969488685999</v>
       </c>
       <c r="R8">
-        <v>19.74495458777535</v>
+        <v>148.61816932116</v>
       </c>
       <c r="S8">
-        <v>0.03285175018020853</v>
+        <v>0.03479132507679969</v>
       </c>
       <c r="T8">
-        <v>0.03285175018020853</v>
+        <v>0.03498202026982127</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.47650306839706</v>
+        <v>6.993139999999999</v>
       </c>
       <c r="H9">
-        <v>6.47650306839706</v>
+        <v>20.97942</v>
       </c>
       <c r="I9">
-        <v>0.105351586769923</v>
+        <v>0.1071503784340102</v>
       </c>
       <c r="J9">
-        <v>0.105351586769923</v>
+        <v>0.1310563636716983</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>2.60321122502843</v>
+        <v>0.365435</v>
       </c>
       <c r="N9">
-        <v>2.60321122502843</v>
+        <v>1.096305</v>
       </c>
       <c r="O9">
-        <v>0.2662632784389478</v>
+        <v>0.03349954947849127</v>
       </c>
       <c r="P9">
-        <v>0.2662632784389478</v>
+        <v>0.04130852979004752</v>
       </c>
       <c r="Q9">
-        <v>16.8597054865823</v>
+        <v>2.5555381159</v>
       </c>
       <c r="R9">
-        <v>16.8597054865823</v>
+        <v>22.9998430431</v>
       </c>
       <c r="S9">
-        <v>0.02805125888210498</v>
+        <v>0.003589489403989187</v>
       </c>
       <c r="T9">
-        <v>0.02805125888210498</v>
+        <v>0.005413745702907653</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.35154521840063</v>
+        <v>6.993139999999999</v>
       </c>
       <c r="H10">
-        <v>5.35154521840063</v>
+        <v>20.97942</v>
       </c>
       <c r="I10">
-        <v>0.08705219073864195</v>
+        <v>0.1071503784340102</v>
       </c>
       <c r="J10">
-        <v>0.08705219073864195</v>
+        <v>0.1310563636716983</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.54097546517566</v>
+        <v>0.6248779999999999</v>
       </c>
       <c r="N10">
-        <v>3.54097546517566</v>
+        <v>1.874634</v>
       </c>
       <c r="O10">
-        <v>0.362180266881437</v>
+        <v>0.05728277663338396</v>
       </c>
       <c r="P10">
-        <v>0.362180266881437</v>
+        <v>0.07063579426750397</v>
       </c>
       <c r="Q10">
-        <v>18.94969031913475</v>
+        <v>4.369859336919999</v>
       </c>
       <c r="R10">
-        <v>18.94969031913475</v>
+        <v>39.32873403228</v>
       </c>
       <c r="S10">
-        <v>0.0315285856743351</v>
+        <v>0.006137871194017965</v>
       </c>
       <c r="T10">
-        <v>0.0315285856743351</v>
+        <v>0.009257270341761265</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.35154521840063</v>
+        <v>6.993139999999999</v>
       </c>
       <c r="H11">
-        <v>5.35154521840063</v>
+        <v>20.97942</v>
       </c>
       <c r="I11">
-        <v>0.08705219073864195</v>
+        <v>0.1071503784340102</v>
       </c>
       <c r="J11">
-        <v>0.08705219073864195</v>
+        <v>0.1310563636716983</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.583938746742756</v>
+        <v>0.3781956666666667</v>
       </c>
       <c r="N11">
-        <v>0.583938746742756</v>
+        <v>1.134587</v>
       </c>
       <c r="O11">
-        <v>0.05972678806098748</v>
+        <v>0.03466932408787059</v>
       </c>
       <c r="P11">
-        <v>0.05972678806098748</v>
+        <v>0.04275098707832277</v>
       </c>
       <c r="Q11">
-        <v>3.124974607970052</v>
+        <v>2.644775244393333</v>
       </c>
       <c r="R11">
-        <v>3.124974607970052</v>
+        <v>23.80297719954</v>
       </c>
       <c r="S11">
-        <v>0.005199347746491526</v>
+        <v>0.003714831196066678</v>
       </c>
       <c r="T11">
-        <v>0.005199347746491526</v>
+        <v>0.005602788909860746</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.35154521840063</v>
+        <v>6.993139999999999</v>
       </c>
       <c r="H12">
-        <v>5.35154521840063</v>
+        <v>20.97942</v>
       </c>
       <c r="I12">
-        <v>0.08705219073864195</v>
+        <v>0.1071503784340102</v>
       </c>
       <c r="J12">
-        <v>0.08705219073864195</v>
+        <v>0.1310563636716983</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.04870612724997</v>
+        <v>3.353617</v>
       </c>
       <c r="N12">
-        <v>3.04870612724997</v>
+        <v>10.060851</v>
       </c>
       <c r="O12">
-        <v>0.3118296666186277</v>
+        <v>0.3074271994291993</v>
       </c>
       <c r="P12">
-        <v>0.3118296666186277</v>
+        <v>0.3790906392351849</v>
       </c>
       <c r="Q12">
-        <v>16.31528869759328</v>
+        <v>23.45231318738</v>
       </c>
       <c r="R12">
-        <v>16.31528869759328</v>
+        <v>211.07081868642</v>
       </c>
       <c r="S12">
-        <v>0.02714545561645191</v>
+        <v>0.03294094075974661</v>
       </c>
       <c r="T12">
-        <v>0.02714545561645191</v>
+        <v>0.04968224068014299</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.35154521840063</v>
+        <v>6.993139999999999</v>
       </c>
       <c r="H13">
-        <v>5.35154521840063</v>
+        <v>20.97942</v>
       </c>
       <c r="I13">
-        <v>0.08705219073864195</v>
+        <v>0.1071503784340102</v>
       </c>
       <c r="J13">
-        <v>0.08705219073864195</v>
+        <v>0.1310563636716983</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.60321122502843</v>
+        <v>2.6445295</v>
       </c>
       <c r="N13">
-        <v>2.60321122502843</v>
+        <v>5.289059</v>
       </c>
       <c r="O13">
-        <v>0.2662632784389478</v>
+        <v>0.2424249095805814</v>
       </c>
       <c r="P13">
-        <v>0.2662632784389478</v>
+        <v>0.1992905726625519</v>
       </c>
       <c r="Q13">
-        <v>13.93120258378774</v>
+        <v>18.49356502763</v>
       </c>
       <c r="R13">
-        <v>13.93120258378774</v>
+        <v>110.96139016578</v>
       </c>
       <c r="S13">
-        <v>0.02317880170136341</v>
+        <v>0.02597592080338999</v>
       </c>
       <c r="T13">
-        <v>0.02317880170136341</v>
+        <v>0.02611829776720442</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.97571576169983</v>
+        <v>8.024555666666666</v>
       </c>
       <c r="H14">
-        <v>1.97571576169983</v>
+        <v>24.073667</v>
       </c>
       <c r="I14">
-        <v>0.0321384531595598</v>
+        <v>0.122953948647977</v>
       </c>
       <c r="J14">
-        <v>0.0321384531595598</v>
+        <v>0.1503858189246111</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.54097546517566</v>
+        <v>3.541999</v>
       </c>
       <c r="N14">
-        <v>3.54097546517566</v>
+        <v>7.083997999999999</v>
       </c>
       <c r="O14">
-        <v>0.362180266881437</v>
+        <v>0.3246962407904732</v>
       </c>
       <c r="P14">
-        <v>0.362180266881437</v>
+        <v>0.266923476966389</v>
       </c>
       <c r="Q14">
-        <v>6.99596103833994</v>
+        <v>28.42296814677766</v>
       </c>
       <c r="R14">
-        <v>6.99596103833994</v>
+        <v>170.537808880666</v>
       </c>
       <c r="S14">
-        <v>0.01163991354248593</v>
+        <v>0.03992268491634302</v>
       </c>
       <c r="T14">
-        <v>0.01163991354248593</v>
+        <v>0.04014150567379496</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.97571576169983</v>
+        <v>8.024555666666666</v>
       </c>
       <c r="H15">
-        <v>1.97571576169983</v>
+        <v>24.073667</v>
       </c>
       <c r="I15">
-        <v>0.0321384531595598</v>
+        <v>0.122953948647977</v>
       </c>
       <c r="J15">
-        <v>0.0321384531595598</v>
+        <v>0.1503858189246111</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.583938746742756</v>
+        <v>0.365435</v>
       </c>
       <c r="N15">
-        <v>0.583938746742756</v>
+        <v>1.096305</v>
       </c>
       <c r="O15">
-        <v>0.05972678806098748</v>
+        <v>0.03349954947849127</v>
       </c>
       <c r="P15">
-        <v>0.05972678806098748</v>
+        <v>0.04130852979004752</v>
       </c>
       <c r="Q15">
-        <v>1.153696985806908</v>
+        <v>2.932453500048333</v>
       </c>
       <c r="R15">
-        <v>1.153696985806908</v>
+        <v>26.392081500435</v>
       </c>
       <c r="S15">
-        <v>0.001919526580469002</v>
+        <v>0.004118901886308781</v>
       </c>
       <c r="T15">
-        <v>0.001919526580469002</v>
+        <v>0.006212217081047989</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.97571576169983</v>
+        <v>8.024555666666666</v>
       </c>
       <c r="H16">
-        <v>1.97571576169983</v>
+        <v>24.073667</v>
       </c>
       <c r="I16">
-        <v>0.0321384531595598</v>
+        <v>0.122953948647977</v>
       </c>
       <c r="J16">
-        <v>0.0321384531595598</v>
+        <v>0.1503858189246111</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.04870612724997</v>
+        <v>0.6248779999999999</v>
       </c>
       <c r="N16">
-        <v>3.04870612724997</v>
+        <v>1.874634</v>
       </c>
       <c r="O16">
-        <v>0.3118296666186277</v>
+        <v>0.05728277663338396</v>
       </c>
       <c r="P16">
-        <v>0.3118296666186277</v>
+        <v>0.07063579426750397</v>
       </c>
       <c r="Q16">
-        <v>6.023376748398613</v>
+        <v>5.014368295875332</v>
       </c>
       <c r="R16">
-        <v>6.023376748398613</v>
+        <v>45.129314662878</v>
       </c>
       <c r="S16">
-        <v>0.01002172313438392</v>
+        <v>0.007043143576594629</v>
       </c>
       <c r="T16">
-        <v>0.01002172313438392</v>
+        <v>0.01062262176630893</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.97571576169983</v>
+        <v>8.024555666666666</v>
       </c>
       <c r="H17">
-        <v>1.97571576169983</v>
+        <v>24.073667</v>
       </c>
       <c r="I17">
-        <v>0.0321384531595598</v>
+        <v>0.122953948647977</v>
       </c>
       <c r="J17">
-        <v>0.0321384531595598</v>
+        <v>0.1503858189246111</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>2.60321122502843</v>
+        <v>0.3781956666666667</v>
       </c>
       <c r="N17">
-        <v>2.60321122502843</v>
+        <v>1.134587</v>
       </c>
       <c r="O17">
-        <v>0.2662632784389478</v>
+        <v>0.03466932408787059</v>
       </c>
       <c r="P17">
-        <v>0.2662632784389478</v>
+        <v>0.04275098707832277</v>
       </c>
       <c r="Q17">
-        <v>5.143205448322592</v>
+        <v>3.034852180058778</v>
       </c>
       <c r="R17">
-        <v>5.143205448322592</v>
+        <v>27.313669620529</v>
       </c>
       <c r="S17">
-        <v>0.008557289902220952</v>
+        <v>0.004262730293560114</v>
       </c>
       <c r="T17">
-        <v>0.008557289902220952</v>
+        <v>0.006429142201609036</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>12.0551823584393</v>
+        <v>8.024555666666666</v>
       </c>
       <c r="H18">
-        <v>12.0551823584393</v>
+        <v>24.073667</v>
       </c>
       <c r="I18">
-        <v>0.1960985082304142</v>
+        <v>0.122953948647977</v>
       </c>
       <c r="J18">
-        <v>0.1960985082304142</v>
+        <v>0.1503858189246111</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.54097546517566</v>
+        <v>3.353617</v>
       </c>
       <c r="N18">
-        <v>3.54097546517566</v>
+        <v>10.060851</v>
       </c>
       <c r="O18">
-        <v>0.362180266881437</v>
+        <v>0.3074271994291993</v>
       </c>
       <c r="P18">
-        <v>0.362180266881437</v>
+        <v>0.3790906392351849</v>
       </c>
       <c r="Q18">
-        <v>42.68710495945201</v>
+        <v>26.91128630117967</v>
       </c>
       <c r="R18">
-        <v>42.68710495945201</v>
+        <v>242.201576710617</v>
       </c>
       <c r="S18">
-        <v>0.07102301004594308</v>
+        <v>0.03779938809160916</v>
       </c>
       <c r="T18">
-        <v>0.07102301004594308</v>
+        <v>0.05700985622803758</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>12.0551823584393</v>
+        <v>8.024555666666666</v>
       </c>
       <c r="H19">
-        <v>12.0551823584393</v>
+        <v>24.073667</v>
       </c>
       <c r="I19">
-        <v>0.1960985082304142</v>
+        <v>0.122953948647977</v>
       </c>
       <c r="J19">
-        <v>0.1960985082304142</v>
+        <v>0.1503858189246111</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.583938746742756</v>
+        <v>2.6445295</v>
       </c>
       <c r="N19">
-        <v>0.583938746742756</v>
+        <v>5.289059</v>
       </c>
       <c r="O19">
-        <v>0.05972678806098748</v>
+        <v>0.2424249095805814</v>
       </c>
       <c r="P19">
-        <v>0.05972678806098748</v>
+        <v>0.1992905726625519</v>
       </c>
       <c r="Q19">
-        <v>7.039488078142426</v>
+        <v>21.22117418489217</v>
       </c>
       <c r="R19">
-        <v>7.039488078142426</v>
+        <v>127.327045109353</v>
       </c>
       <c r="S19">
-        <v>0.01171233404015376</v>
+        <v>0.02980709988356128</v>
       </c>
       <c r="T19">
-        <v>0.01171233404015376</v>
+        <v>0.02997047597381257</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>12.0551823584393</v>
+        <v>2.074084</v>
       </c>
       <c r="H20">
-        <v>12.0551823584393</v>
+        <v>6.222252</v>
       </c>
       <c r="I20">
-        <v>0.1960985082304142</v>
+        <v>0.03177955617990281</v>
       </c>
       <c r="J20">
-        <v>0.1960985082304142</v>
+        <v>0.03886979339604968</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.04870612724997</v>
+        <v>3.541999</v>
       </c>
       <c r="N20">
-        <v>3.04870612724997</v>
+        <v>7.083997999999999</v>
       </c>
       <c r="O20">
-        <v>0.3118296666186277</v>
+        <v>0.3246962407904732</v>
       </c>
       <c r="P20">
-        <v>0.3118296666186277</v>
+        <v>0.266923476966389</v>
       </c>
       <c r="Q20">
-        <v>36.75270832128964</v>
+        <v>7.346403453915999</v>
       </c>
       <c r="R20">
-        <v>36.75270832128964</v>
+        <v>44.078420723496</v>
       </c>
       <c r="S20">
-        <v>0.06114933244590027</v>
+        <v>0.01031870242560409</v>
       </c>
       <c r="T20">
-        <v>0.06114933244590027</v>
+        <v>0.01037526040223876</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>12.0551823584393</v>
+        <v>2.074084</v>
       </c>
       <c r="H21">
-        <v>12.0551823584393</v>
+        <v>6.222252</v>
       </c>
       <c r="I21">
-        <v>0.1960985082304142</v>
+        <v>0.03177955617990281</v>
       </c>
       <c r="J21">
-        <v>0.1960985082304142</v>
+        <v>0.03886979339604968</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>2.60321122502843</v>
+        <v>0.365435</v>
       </c>
       <c r="N21">
-        <v>2.60321122502843</v>
+        <v>1.096305</v>
       </c>
       <c r="O21">
-        <v>0.2662632784389478</v>
+        <v>0.03349954947849127</v>
       </c>
       <c r="P21">
-        <v>0.2662632784389478</v>
+        <v>0.04130852979004752</v>
       </c>
       <c r="Q21">
-        <v>31.38218603525389</v>
+        <v>0.7579428865400001</v>
       </c>
       <c r="R21">
-        <v>31.38218603525389</v>
+        <v>6.821485978860001</v>
       </c>
       <c r="S21">
-        <v>0.05221383169841706</v>
+        <v>0.001064600814653147</v>
       </c>
       <c r="T21">
-        <v>0.05221383169841706</v>
+        <v>0.001605654018433711</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>20.3785735183928</v>
+        <v>2.074084</v>
       </c>
       <c r="H22">
-        <v>20.3785735183928</v>
+        <v>6.222252</v>
       </c>
       <c r="I22">
-        <v>0.3314929420394111</v>
+        <v>0.03177955617990281</v>
       </c>
       <c r="J22">
-        <v>0.3314929420394111</v>
+        <v>0.03886979339604968</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.54097546517566</v>
+        <v>0.6248779999999999</v>
       </c>
       <c r="N22">
-        <v>3.54097546517566</v>
+        <v>1.874634</v>
       </c>
       <c r="O22">
-        <v>0.362180266881437</v>
+        <v>0.05728277663338396</v>
       </c>
       <c r="P22">
-        <v>0.362180266881437</v>
+        <v>0.07063579426750397</v>
       </c>
       <c r="Q22">
-        <v>72.16002884390733</v>
+        <v>1.296049461752</v>
       </c>
       <c r="R22">
-        <v>72.16002884390733</v>
+        <v>11.664445155768</v>
       </c>
       <c r="S22">
-        <v>0.1200602022171466</v>
+        <v>0.001820421218161449</v>
       </c>
       <c r="T22">
-        <v>0.1200602022171466</v>
+        <v>0.002745598729543749</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>20.3785735183928</v>
+        <v>2.074084</v>
       </c>
       <c r="H23">
-        <v>20.3785735183928</v>
+        <v>6.222252</v>
       </c>
       <c r="I23">
-        <v>0.3314929420394111</v>
+        <v>0.03177955617990281</v>
       </c>
       <c r="J23">
-        <v>0.3314929420394111</v>
+        <v>0.03886979339604968</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>0.583938746742756</v>
+        <v>0.3781956666666667</v>
       </c>
       <c r="N23">
-        <v>0.583938746742756</v>
+        <v>1.134587</v>
       </c>
       <c r="O23">
-        <v>0.05972678806098748</v>
+        <v>0.03466932408787059</v>
       </c>
       <c r="P23">
-        <v>0.05972678806098748</v>
+        <v>0.04275098707832277</v>
       </c>
       <c r="Q23">
-        <v>11.89983868073541</v>
+        <v>0.7844095811026667</v>
       </c>
       <c r="R23">
-        <v>11.89983868073541</v>
+        <v>7.059686229924</v>
       </c>
       <c r="S23">
-        <v>0.01979900869290111</v>
+        <v>0.001101775732569741</v>
       </c>
       <c r="T23">
-        <v>0.01979900869290111</v>
+        <v>0.001661722035211596</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1901,57 +1901,57 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>20.3785735183928</v>
+        <v>2.074084</v>
       </c>
       <c r="H24">
-        <v>20.3785735183928</v>
+        <v>6.222252</v>
       </c>
       <c r="I24">
-        <v>0.3314929420394111</v>
+        <v>0.03177955617990281</v>
       </c>
       <c r="J24">
-        <v>0.3314929420394111</v>
+        <v>0.03886979339604968</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.04870612724997</v>
+        <v>3.353617</v>
       </c>
       <c r="N24">
-        <v>3.04870612724997</v>
+        <v>10.060851</v>
       </c>
       <c r="O24">
-        <v>0.3118296666186277</v>
+        <v>0.3074271994291993</v>
       </c>
       <c r="P24">
-        <v>0.3118296666186277</v>
+        <v>0.3790906392351849</v>
       </c>
       <c r="Q24">
-        <v>62.1282819501381</v>
+        <v>6.955683361828001</v>
       </c>
       <c r="R24">
-        <v>62.1282819501381</v>
+        <v>62.60115025645201</v>
       </c>
       <c r="S24">
-        <v>0.1033693336025776</v>
+        <v>0.009769899955490425</v>
       </c>
       <c r="T24">
-        <v>0.1033693336025776</v>
+        <v>0.01473517482544804</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,52 +1963,796 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>20.3785735183928</v>
+        <v>2.074084</v>
       </c>
       <c r="H25">
-        <v>20.3785735183928</v>
+        <v>6.222252</v>
       </c>
       <c r="I25">
-        <v>0.3314929420394111</v>
+        <v>0.03177955617990281</v>
       </c>
       <c r="J25">
-        <v>0.3314929420394111</v>
+        <v>0.03886979339604968</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.60321122502843</v>
+        <v>2.6445295</v>
       </c>
       <c r="N25">
-        <v>2.60321122502843</v>
+        <v>5.289059</v>
       </c>
       <c r="O25">
-        <v>0.2662632784389478</v>
+        <v>0.2424249095805814</v>
       </c>
       <c r="P25">
-        <v>0.2662632784389478</v>
+        <v>0.1992905726625519</v>
       </c>
       <c r="Q25">
-        <v>53.04973133314724</v>
+        <v>5.484976323478</v>
       </c>
       <c r="R25">
-        <v>53.04973133314724</v>
+        <v>32.909857940868</v>
       </c>
       <c r="S25">
-        <v>0.08826439752678569</v>
+        <v>0.007704156033423946</v>
       </c>
       <c r="T25">
-        <v>0.08826439752678569</v>
+        <v>0.007746383385173817</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>12.458139</v>
+      </c>
+      <c r="H26">
+        <v>37.374417</v>
+      </c>
+      <c r="I26">
+        <v>0.190886255449412</v>
+      </c>
+      <c r="J26">
+        <v>0.233474289869296</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.541999</v>
+      </c>
+      <c r="N26">
+        <v>7.083997999999999</v>
+      </c>
+      <c r="O26">
+        <v>0.3246962407904732</v>
+      </c>
+      <c r="P26">
+        <v>0.266923476966389</v>
+      </c>
+      <c r="Q26">
+        <v>44.126715879861</v>
+      </c>
+      <c r="R26">
+        <v>264.760295279166</v>
+      </c>
+      <c r="S26">
+        <v>0.06198004956299405</v>
+      </c>
+      <c r="T26">
+        <v>0.06231976923417105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>12.458139</v>
+      </c>
+      <c r="H27">
+        <v>37.374417</v>
+      </c>
+      <c r="I27">
+        <v>0.190886255449412</v>
+      </c>
+      <c r="J27">
+        <v>0.233474289869296</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M27">
+        <v>0.365435</v>
+      </c>
+      <c r="N27">
+        <v>1.096305</v>
+      </c>
+      <c r="O27">
+        <v>0.03349954947849127</v>
+      </c>
+      <c r="P27">
+        <v>0.04130852979004752</v>
+      </c>
+      <c r="Q27">
+        <v>4.552640025465</v>
+      </c>
+      <c r="R27">
+        <v>40.973760229185</v>
+      </c>
+      <c r="S27">
+        <v>0.006394603559191501</v>
+      </c>
+      <c r="T27">
+        <v>0.009644479658276004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>12.458139</v>
+      </c>
+      <c r="H28">
+        <v>37.374417</v>
+      </c>
+      <c r="I28">
+        <v>0.190886255449412</v>
+      </c>
+      <c r="J28">
+        <v>0.233474289869296</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.6248779999999999</v>
+      </c>
+      <c r="N28">
+        <v>1.874634</v>
+      </c>
+      <c r="O28">
+        <v>0.05728277663338396</v>
+      </c>
+      <c r="P28">
+        <v>0.07063579426750397</v>
+      </c>
+      <c r="Q28">
+        <v>7.784816982042</v>
+      </c>
+      <c r="R28">
+        <v>70.06335283837799</v>
+      </c>
+      <c r="S28">
+        <v>0.01093449473329174</v>
+      </c>
+      <c r="T28">
+        <v>0.01649164190595918</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>12.458139</v>
+      </c>
+      <c r="H29">
+        <v>37.374417</v>
+      </c>
+      <c r="I29">
+        <v>0.190886255449412</v>
+      </c>
+      <c r="J29">
+        <v>0.233474289869296</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.3781956666666667</v>
+      </c>
+      <c r="N29">
+        <v>1.134587</v>
+      </c>
+      <c r="O29">
+        <v>0.03466932408787059</v>
+      </c>
+      <c r="P29">
+        <v>0.04275098707832277</v>
+      </c>
+      <c r="Q29">
+        <v>4.711614184531</v>
+      </c>
+      <c r="R29">
+        <v>42.404527660779</v>
+      </c>
+      <c r="S29">
+        <v>0.006617897454095719</v>
+      </c>
+      <c r="T29">
+        <v>0.009981256349322858</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>12.458139</v>
+      </c>
+      <c r="H30">
+        <v>37.374417</v>
+      </c>
+      <c r="I30">
+        <v>0.190886255449412</v>
+      </c>
+      <c r="J30">
+        <v>0.233474289869296</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>3.353617</v>
+      </c>
+      <c r="N30">
+        <v>10.060851</v>
+      </c>
+      <c r="O30">
+        <v>0.3074271994291993</v>
+      </c>
+      <c r="P30">
+        <v>0.3790906392351849</v>
+      </c>
+      <c r="Q30">
+        <v>41.77982673876301</v>
+      </c>
+      <c r="R30">
+        <v>376.0184406488671</v>
+      </c>
+      <c r="S30">
+        <v>0.05868362692233946</v>
+      </c>
+      <c r="T30">
+        <v>0.08850791779153228</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>12.458139</v>
+      </c>
+      <c r="H31">
+        <v>37.374417</v>
+      </c>
+      <c r="I31">
+        <v>0.190886255449412</v>
+      </c>
+      <c r="J31">
+        <v>0.233474289869296</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>2.6445295</v>
+      </c>
+      <c r="N31">
+        <v>5.289059</v>
+      </c>
+      <c r="O31">
+        <v>0.2424249095805814</v>
+      </c>
+      <c r="P31">
+        <v>0.1992905726625519</v>
+      </c>
+      <c r="Q31">
+        <v>32.9459161006005</v>
+      </c>
+      <c r="R31">
+        <v>197.675496603603</v>
+      </c>
+      <c r="S31">
+        <v>0.04627558321749947</v>
+      </c>
+      <c r="T31">
+        <v>0.04652922493003463</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>20.45175</v>
+      </c>
+      <c r="H32">
+        <v>40.9035</v>
+      </c>
+      <c r="I32">
+        <v>0.3133660633331761</v>
+      </c>
+      <c r="J32">
+        <v>0.2555201226461606</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>3.541999</v>
+      </c>
+      <c r="N32">
+        <v>7.083997999999999</v>
+      </c>
+      <c r="O32">
+        <v>0.3246962407904732</v>
+      </c>
+      <c r="P32">
+        <v>0.266923476966389</v>
+      </c>
+      <c r="Q32">
+        <v>72.44007804825</v>
+      </c>
+      <c r="R32">
+        <v>289.760312193</v>
+      </c>
+      <c r="S32">
+        <v>0.1017487827555916</v>
+      </c>
+      <c r="T32">
+        <v>0.06820431957159133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>20.45175</v>
+      </c>
+      <c r="H33">
+        <v>40.9035</v>
+      </c>
+      <c r="I33">
+        <v>0.3133660633331761</v>
+      </c>
+      <c r="J33">
+        <v>0.2555201226461606</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M33">
+        <v>0.365435</v>
+      </c>
+      <c r="N33">
+        <v>1.096305</v>
+      </c>
+      <c r="O33">
+        <v>0.03349954947849127</v>
+      </c>
+      <c r="P33">
+        <v>0.04130852979004752</v>
+      </c>
+      <c r="Q33">
+        <v>7.473785261250001</v>
+      </c>
+      <c r="R33">
+        <v>44.8427115675</v>
+      </c>
+      <c r="S33">
+        <v>0.01049762194350976</v>
+      </c>
+      <c r="T33">
+        <v>0.01055516059828552</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>20.45175</v>
+      </c>
+      <c r="H34">
+        <v>40.9035</v>
+      </c>
+      <c r="I34">
+        <v>0.3133660633331761</v>
+      </c>
+      <c r="J34">
+        <v>0.2555201226461606</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.6248779999999999</v>
+      </c>
+      <c r="N34">
+        <v>1.874634</v>
+      </c>
+      <c r="O34">
+        <v>0.05728277663338396</v>
+      </c>
+      <c r="P34">
+        <v>0.07063579426750397</v>
+      </c>
+      <c r="Q34">
+        <v>12.7798486365</v>
+      </c>
+      <c r="R34">
+        <v>76.67909181899999</v>
+      </c>
+      <c r="S34">
+        <v>0.01795047821039718</v>
+      </c>
+      <c r="T34">
+        <v>0.01804886681444158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>20.45175</v>
+      </c>
+      <c r="H35">
+        <v>40.9035</v>
+      </c>
+      <c r="I35">
+        <v>0.3133660633331761</v>
+      </c>
+      <c r="J35">
+        <v>0.2555201226461606</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.3781956666666667</v>
+      </c>
+      <c r="N35">
+        <v>1.134587</v>
+      </c>
+      <c r="O35">
+        <v>0.03466932408787059</v>
+      </c>
+      <c r="P35">
+        <v>0.04275098707832277</v>
+      </c>
+      <c r="Q35">
+        <v>7.73476322575</v>
+      </c>
+      <c r="R35">
+        <v>46.4085793545</v>
+      </c>
+      <c r="S35">
+        <v>0.01086418960783806</v>
+      </c>
+      <c r="T35">
+        <v>0.01092373746149746</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>20.45175</v>
+      </c>
+      <c r="H36">
+        <v>40.9035</v>
+      </c>
+      <c r="I36">
+        <v>0.3133660633331761</v>
+      </c>
+      <c r="J36">
+        <v>0.2555201226461606</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>3.353617</v>
+      </c>
+      <c r="N36">
+        <v>10.060851</v>
+      </c>
+      <c r="O36">
+        <v>0.3074271994291993</v>
+      </c>
+      <c r="P36">
+        <v>0.3790906392351849</v>
+      </c>
+      <c r="Q36">
+        <v>68.58733647975001</v>
+      </c>
+      <c r="R36">
+        <v>411.5240188785</v>
+      </c>
+      <c r="S36">
+        <v>0.09633725124667145</v>
+      </c>
+      <c r="T36">
+        <v>0.09686528663138587</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>20.45175</v>
+      </c>
+      <c r="H37">
+        <v>40.9035</v>
+      </c>
+      <c r="I37">
+        <v>0.3133660633331761</v>
+      </c>
+      <c r="J37">
+        <v>0.2555201226461606</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>2.6445295</v>
+      </c>
+      <c r="N37">
+        <v>5.289059</v>
+      </c>
+      <c r="O37">
+        <v>0.2424249095805814</v>
+      </c>
+      <c r="P37">
+        <v>0.1992905726625519</v>
+      </c>
+      <c r="Q37">
+        <v>54.085256201625</v>
+      </c>
+      <c r="R37">
+        <v>216.3410248065</v>
+      </c>
+      <c r="S37">
+        <v>0.07596773956916798</v>
+      </c>
+      <c r="T37">
+        <v>0.05092275156895883</v>
       </c>
     </row>
   </sheetData>
